--- a/smalltest.xlsx
+++ b/smalltest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Day</t>
   </si>
@@ -72,30 +72,6 @@
   </si>
   <si>
     <t>Laptops</t>
-  </si>
-  <si>
-    <t>9:00-10:10am</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>AJD</t>
-  </si>
-  <si>
-    <t>iPad</t>
-  </si>
-  <si>
-    <t>11:45-12:50pm</t>
-  </si>
-  <si>
-    <t>Lecture Theatre</t>
-  </si>
-  <si>
-    <t>Trevor</t>
-  </si>
-  <si>
-    <t>IT KIT</t>
   </si>
 </sst>
 </file>
@@ -167,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,8 +157,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,46 +509,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/smalltest.xlsx
+++ b/smalltest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
   <si>
     <t>Day</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Setup</t>
   </si>
   <si>
-    <t>Friday</t>
-  </si>
-  <si>
     <t>05.09.14</t>
   </si>
   <si>
@@ -62,16 +59,28 @@
     <t>Hall - Sound/Vision/Laptop/Mic</t>
   </si>
   <si>
-    <t>9:00-9:35pm</t>
-  </si>
-  <si>
-    <t>SG2</t>
-  </si>
-  <si>
-    <t>Anastasia</t>
-  </si>
-  <si>
-    <t>Laptops</t>
+    <t>dfg Friday</t>
+  </si>
+  <si>
+    <t>dfg Fridaydfs</t>
+  </si>
+  <si>
+    <t>dfg Friday fsddfsd</t>
+  </si>
+  <si>
+    <t>dfgfThursdaydsgf</t>
+  </si>
+  <si>
+    <t>sdfdsfMondaydsfs9</t>
+  </si>
+  <si>
+    <t>lodfMondafsdg3</t>
+  </si>
+  <si>
+    <t>dfgdfgdayge</t>
+  </si>
+  <si>
+    <t>dfgsgjghmvmvncvncvnWednesdaycvnbcvncvncvncvn</t>
   </si>
 </sst>
 </file>
@@ -437,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,42 +480,202 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
